--- a/ブレーカ調査/241203_ブレーカ調査_nishi.xlsx
+++ b/ブレーカ調査/241203_ブレーカ調査_nishi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kyoceragp-my.sharepoint.com/personal/masakazu_nishi_zs_kyocera_jp/Documents/電力計設置/ブレーカ調査/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{848B8455-1876-4A13-A66D-84C06D432326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A3489F2-E37A-4CEE-B2B5-4186F28D383E}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{848B8455-1876-4A13-A66D-84C06D432326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F77AE69C-FB9C-4419-BA47-0EDE84A5237A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2160" yWindow="2160" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="31785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8410" uniqueCount="1397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8410" uniqueCount="1398">
   <si>
     <t>L33-1A</t>
   </si>
@@ -4852,6 +4852,10 @@
   </si>
   <si>
     <t>M5Stack_173</t>
+  </si>
+  <si>
+    <t>M33-1H(右)</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -5368,8 +5372,8 @@
   <dimension ref="A1:Z1089"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
+      <pane ySplit="2" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G417" sqref="G417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -28694,7 +28698,7 @@
       <c r="Y416" s="9"/>
       <c r="Z416" s="9"/>
     </row>
-    <row r="417" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A417" s="9">
         <v>121</v>
       </c>
@@ -28714,7 +28718,7 @@
         <v>14</v>
       </c>
       <c r="G417" s="9" t="s">
-        <v>240</v>
+        <v>1397</v>
       </c>
       <c r="I417" s="11" t="s">
         <v>37</v>
@@ -28998,7 +29002,7 @@
       <c r="Y421" s="9"/>
       <c r="Z421" s="9"/>
     </row>
-    <row r="422" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A422" s="9">
         <v>102</v>
       </c>
@@ -29257,7 +29261,7 @@
       <c r="Y425" s="9"/>
       <c r="Z425" s="9"/>
     </row>
-    <row r="426" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A426" s="9">
         <v>126</v>
       </c>
@@ -31678,7 +31682,7 @@
       <c r="Y462" s="9"/>
       <c r="Z462" s="9"/>
     </row>
-    <row r="463" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A463" s="16">
         <v>144</v>
       </c>
@@ -34340,7 +34344,7 @@
       </c>
       <c r="Z504" s="9"/>
     </row>
-    <row r="505" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A505" s="9">
         <v>318</v>
       </c>
@@ -34801,7 +34805,7 @@
       </c>
       <c r="Z511" s="9"/>
     </row>
-    <row r="512" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A512" s="9">
         <v>325</v>
       </c>
@@ -35535,7 +35539,7 @@
       </c>
       <c r="Z522" s="9"/>
     </row>
-    <row r="523" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A523" s="16">
         <v>77</v>
       </c>
@@ -41502,7 +41506,7 @@
       <c r="Y618" s="9"/>
       <c r="Z618" s="9"/>
     </row>
-    <row r="619" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A619" s="21">
         <v>673</v>
       </c>
@@ -44880,7 +44884,7 @@
       <c r="Y676" s="9"/>
       <c r="Z676" s="9"/>
     </row>
-    <row r="677" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A677" s="21">
         <v>899</v>
       </c>
@@ -44952,7 +44956,7 @@
       <c r="Y677" s="9"/>
       <c r="Z677" s="9"/>
     </row>
-    <row r="678" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A678" s="16">
         <v>900</v>
       </c>
@@ -45010,7 +45014,7 @@
       <c r="Y678" s="9"/>
       <c r="Z678" s="9"/>
     </row>
-    <row r="679" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A679" s="9">
         <v>901</v>
       </c>
@@ -45081,7 +45085,7 @@
       <c r="Y679" s="9"/>
       <c r="Z679" s="9"/>
     </row>
-    <row r="680" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A680" s="9">
         <v>902</v>
       </c>
@@ -45152,7 +45156,7 @@
       <c r="Y680" s="9"/>
       <c r="Z680" s="9"/>
     </row>
-    <row r="681" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A681" s="9">
         <v>903</v>
       </c>
@@ -45210,7 +45214,7 @@
       <c r="Y681" s="9"/>
       <c r="Z681" s="9"/>
     </row>
-    <row r="682" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A682" s="16">
         <v>904</v>
       </c>
@@ -45281,7 +45285,7 @@
       <c r="Y682" s="9"/>
       <c r="Z682" s="9"/>
     </row>
-    <row r="683" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A683" s="9">
         <v>905</v>
       </c>
@@ -45352,7 +45356,7 @@
       <c r="Y683" s="9"/>
       <c r="Z683" s="9"/>
     </row>
-    <row r="684" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A684" s="9">
         <v>906</v>
       </c>
@@ -45410,7 +45414,7 @@
       <c r="Y684" s="9"/>
       <c r="Z684" s="9"/>
     </row>
-    <row r="685" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A685" s="9">
         <v>907</v>
       </c>
@@ -45468,7 +45472,7 @@
       <c r="Y685" s="9"/>
       <c r="Z685" s="9"/>
     </row>
-    <row r="686" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A686" s="16">
         <v>908</v>
       </c>
@@ -45526,7 +45530,7 @@
       <c r="Y686" s="9"/>
       <c r="Z686" s="9"/>
     </row>
-    <row r="687" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A687" s="9">
         <v>909</v>
       </c>
@@ -45597,7 +45601,7 @@
       <c r="Y687" s="9"/>
       <c r="Z687" s="9"/>
     </row>
-    <row r="688" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A688" s="9">
         <v>910</v>
       </c>
@@ -45668,7 +45672,7 @@
       <c r="Y688" s="9"/>
       <c r="Z688" s="9"/>
     </row>
-    <row r="689" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A689" s="9">
         <v>911</v>
       </c>
@@ -45739,7 +45743,7 @@
       <c r="Y689" s="9"/>
       <c r="Z689" s="9"/>
     </row>
-    <row r="690" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A690" s="16">
         <v>912</v>
       </c>
@@ -45797,7 +45801,7 @@
       <c r="Y690" s="9"/>
       <c r="Z690" s="9"/>
     </row>
-    <row r="691" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A691" s="9">
         <v>913</v>
       </c>
@@ -45874,7 +45878,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="692" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A692" s="9">
         <v>914</v>
       </c>
@@ -45932,7 +45936,7 @@
       <c r="Y692" s="9"/>
       <c r="Z692" s="9"/>
     </row>
-    <row r="693" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A693" s="9">
         <v>915</v>
       </c>
@@ -46003,7 +46007,7 @@
       <c r="Y693" s="9"/>
       <c r="Z693" s="9"/>
     </row>
-    <row r="694" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A694" s="16">
         <v>916</v>
       </c>
@@ -46061,7 +46065,7 @@
       <c r="Y694" s="9"/>
       <c r="Z694" s="9"/>
     </row>
-    <row r="695" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A695" s="9">
         <v>917</v>
       </c>
@@ -46119,7 +46123,7 @@
       <c r="Y695" s="9"/>
       <c r="Z695" s="9"/>
     </row>
-    <row r="696" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A696" s="9">
         <v>918</v>
       </c>
@@ -46187,7 +46191,7 @@
       <c r="Y696" s="9"/>
       <c r="Z696" s="9"/>
     </row>
-    <row r="697" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A697" s="9">
         <v>919</v>
       </c>
@@ -46255,7 +46259,7 @@
       <c r="Y697" s="9"/>
       <c r="Z697" s="9"/>
     </row>
-    <row r="698" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A698" s="16">
         <v>920</v>
       </c>
@@ -46310,7 +46314,7 @@
       <c r="Y698" s="9"/>
       <c r="Z698" s="9"/>
     </row>
-    <row r="699" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A699" s="9">
         <v>921</v>
       </c>
@@ -46365,7 +46369,7 @@
       <c r="Y699" s="9"/>
       <c r="Z699" s="9"/>
     </row>
-    <row r="700" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A700" s="21">
         <v>922</v>
       </c>
@@ -46439,7 +46443,7 @@
       <c r="Y700" s="9"/>
       <c r="Z700" s="9"/>
     </row>
-    <row r="701" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A701" s="9">
         <v>923</v>
       </c>
@@ -46497,7 +46501,7 @@
       <c r="Y701" s="9"/>
       <c r="Z701" s="9"/>
     </row>
-    <row r="702" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A702" s="16">
         <v>924</v>
       </c>
@@ -46555,7 +46559,7 @@
       <c r="Y702" s="9"/>
       <c r="Z702" s="9"/>
     </row>
-    <row r="703" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A703" s="9">
         <v>925</v>
       </c>
@@ -46613,7 +46617,7 @@
       <c r="Y703" s="9"/>
       <c r="Z703" s="9"/>
     </row>
-    <row r="704" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A704" s="9">
         <v>926</v>
       </c>
@@ -46671,7 +46675,7 @@
       <c r="Y704" s="9"/>
       <c r="Z704" s="9"/>
     </row>
-    <row r="705" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A705" s="9">
         <v>927</v>
       </c>
@@ -46731,7 +46735,7 @@
       </c>
       <c r="Z705" s="9"/>
     </row>
-    <row r="706" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A706" s="16">
         <v>928</v>
       </c>
@@ -46795,7 +46799,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="707" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A707" s="9">
         <v>929</v>
       </c>
@@ -46853,7 +46857,7 @@
       <c r="Y707" s="9"/>
       <c r="Z707" s="9"/>
     </row>
-    <row r="708" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A708" s="9">
         <v>930</v>
       </c>
@@ -46911,7 +46915,7 @@
       <c r="Y708" s="9"/>
       <c r="Z708" s="9"/>
     </row>
-    <row r="709" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A709" s="9">
         <v>931</v>
       </c>
@@ -46969,7 +46973,7 @@
       <c r="Y709" s="9"/>
       <c r="Z709" s="9"/>
     </row>
-    <row r="710" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A710" s="16">
         <v>932</v>
       </c>
@@ -47027,7 +47031,7 @@
       <c r="Y710" s="9"/>
       <c r="Z710" s="9"/>
     </row>
-    <row r="711" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A711" s="9">
         <v>933</v>
       </c>
@@ -47087,7 +47091,7 @@
       </c>
       <c r="Z711" s="9"/>
     </row>
-    <row r="712" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A712" s="9">
         <v>934</v>
       </c>
@@ -54813,7 +54817,7 @@
       <c r="Y838" s="9"/>
       <c r="Z838" s="9"/>
     </row>
-    <row r="839" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A839" s="9">
         <v>188</v>
       </c>
@@ -54871,7 +54875,7 @@
       <c r="Y839" s="9"/>
       <c r="Z839" s="9"/>
     </row>
-    <row r="840" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A840" s="9">
         <v>189</v>
       </c>
@@ -69877,10 +69881,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:W1084" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="ML-2"/>
-      </filters>
+    <filterColumn colId="12">
+      <customFilters>
+        <customFilter operator="greaterThanOrEqual" val="600"/>
+      </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:W1084">
       <sortCondition ref="G2:G1084"/>
